--- a/Mockup/Section1.xlsx
+++ b/Mockup/Section1.xlsx
@@ -1,19 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B28B9FC-51BB-48B0-9C47-9F72D93A95CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900D3078-3E31-4ADF-9685-4CE7A34C01E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Section" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -502,19 +511,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="A266" sqref="A266"/>
+    <sheetView tabSelected="1" topLeftCell="A449" workbookViewId="0">
+      <selection activeCell="C489" sqref="C2:C489"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.7109375" style="2"/>
-    <col min="4" max="4" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="2"/>
+    <col min="1" max="1" width="22.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="2"/>
+    <col min="3" max="3" width="28.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -524,7 +534,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -532,7 +542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -540,7 +550,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -548,7 +558,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -556,7 +566,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -564,7 +574,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -572,7 +582,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -580,7 +590,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -588,7 +598,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -596,7 +606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -604,7 +614,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -612,7 +622,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -620,7 +630,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -628,7 +638,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
@@ -636,7 +646,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
@@ -644,7 +654,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
@@ -652,7 +662,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -660,7 +670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -668,7 +678,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -676,7 +686,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
@@ -684,7 +694,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
@@ -692,7 +702,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
@@ -700,7 +710,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>5</v>
       </c>
@@ -708,7 +718,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>5</v>
       </c>
@@ -716,7 +726,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
@@ -724,7 +734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
@@ -732,7 +742,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
@@ -740,7 +750,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
@@ -748,7 +758,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>7</v>
       </c>
@@ -756,7 +766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>7</v>
       </c>
@@ -764,7 +774,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>7</v>
       </c>
@@ -772,7 +782,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>7</v>
       </c>
@@ -780,7 +790,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>3</v>
       </c>
@@ -788,7 +798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>3</v>
       </c>
@@ -796,7 +806,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>3</v>
       </c>
@@ -804,7 +814,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>3</v>
       </c>
@@ -812,7 +822,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>3</v>
       </c>
@@ -820,7 +830,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>3</v>
       </c>
@@ -828,7 +838,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>3</v>
       </c>
@@ -836,7 +846,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -844,7 +854,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>8</v>
       </c>
@@ -852,7 +862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>8</v>
       </c>
@@ -860,7 +870,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>8</v>
       </c>
@@ -868,7 +878,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>8</v>
       </c>
@@ -876,7 +886,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>8</v>
       </c>
@@ -884,7 +894,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>8</v>
       </c>
@@ -892,7 +902,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>8</v>
       </c>
@@ -900,7 +910,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>8</v>
       </c>
@@ -908,7 +918,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>9</v>
       </c>
@@ -916,7 +926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>9</v>
       </c>
@@ -924,7 +934,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>9</v>
       </c>
@@ -932,7 +942,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
@@ -940,7 +950,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>9</v>
       </c>
@@ -948,7 +958,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>9</v>
       </c>
@@ -956,7 +966,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>9</v>
       </c>
@@ -964,7 +974,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>9</v>
       </c>
@@ -972,7 +982,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>38</v>
       </c>
@@ -980,7 +990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>38</v>
       </c>
@@ -988,7 +998,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>38</v>
       </c>
@@ -996,7 +1006,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>38</v>
       </c>
@@ -1004,7 +1014,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>38</v>
       </c>
@@ -1012,7 +1022,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>38</v>
       </c>
@@ -1020,7 +1030,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>38</v>
       </c>
@@ -1028,7 +1038,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>38</v>
       </c>
@@ -1036,7 +1046,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>10</v>
       </c>
@@ -1044,7 +1054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>10</v>
       </c>
@@ -1052,7 +1062,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>10</v>
       </c>
@@ -1060,7 +1070,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>10</v>
       </c>
@@ -1068,7 +1078,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>10</v>
       </c>
@@ -1076,7 +1086,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>10</v>
       </c>
@@ -1084,7 +1094,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>10</v>
       </c>
@@ -1092,7 +1102,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>10</v>
       </c>
@@ -1100,7 +1110,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>11</v>
       </c>
@@ -1108,7 +1118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>11</v>
       </c>
@@ -1116,7 +1126,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>11</v>
       </c>
@@ -1124,7 +1134,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>11</v>
       </c>
@@ -1132,7 +1142,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>12</v>
       </c>
@@ -1140,7 +1150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>12</v>
       </c>
@@ -1148,7 +1158,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>12</v>
       </c>
@@ -1156,7 +1166,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>12</v>
       </c>
@@ -1164,7 +1174,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>12</v>
       </c>
@@ -1172,7 +1182,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>12</v>
       </c>
@@ -1180,7 +1190,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>12</v>
       </c>
@@ -1188,7 +1198,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>12</v>
       </c>
@@ -1196,7 +1206,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>13</v>
       </c>
@@ -1204,7 +1214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>13</v>
       </c>
@@ -1212,7 +1222,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>13</v>
       </c>
@@ -1220,7 +1230,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>13</v>
       </c>
@@ -1228,7 +1238,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>13</v>
       </c>
@@ -1236,7 +1246,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>13</v>
       </c>
@@ -1244,7 +1254,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>13</v>
       </c>
@@ -1252,7 +1262,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>13</v>
       </c>
@@ -1260,7 +1270,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>14</v>
       </c>
@@ -1268,7 +1278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>14</v>
       </c>
@@ -1276,7 +1286,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>14</v>
       </c>
@@ -1284,7 +1294,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>14</v>
       </c>
@@ -1292,7 +1302,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>14</v>
       </c>
@@ -1300,7 +1310,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>14</v>
       </c>
@@ -1308,7 +1318,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>14</v>
       </c>
@@ -1316,7 +1326,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>14</v>
       </c>
@@ -1324,7 +1334,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>15</v>
       </c>
@@ -1332,7 +1342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>15</v>
       </c>
@@ -1340,7 +1350,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>15</v>
       </c>
@@ -1348,7 +1358,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>15</v>
       </c>
@@ -1356,7 +1366,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>15</v>
       </c>
@@ -1364,7 +1374,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>15</v>
       </c>
@@ -1372,7 +1382,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>15</v>
       </c>
@@ -1380,7 +1390,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>15</v>
       </c>
@@ -1388,7 +1398,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>39</v>
       </c>
@@ -1396,7 +1406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>39</v>
       </c>
@@ -1404,7 +1414,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>39</v>
       </c>
@@ -1412,7 +1422,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>39</v>
       </c>
@@ -1420,7 +1430,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>16</v>
       </c>
@@ -1428,7 +1438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>16</v>
       </c>
@@ -1436,7 +1446,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>16</v>
       </c>
@@ -1444,7 +1454,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>16</v>
       </c>
@@ -1452,7 +1462,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>16</v>
       </c>
@@ -1460,7 +1470,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>16</v>
       </c>
@@ -1468,7 +1478,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>16</v>
       </c>
@@ -1476,7 +1486,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>16</v>
       </c>
@@ -1484,7 +1494,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>17</v>
       </c>
@@ -1492,7 +1502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>17</v>
       </c>
@@ -1500,7 +1510,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>17</v>
       </c>
@@ -1508,7 +1518,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>17</v>
       </c>
@@ -1516,7 +1526,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>40</v>
       </c>
@@ -1524,7 +1534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>40</v>
       </c>
@@ -1532,7 +1542,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>40</v>
       </c>
@@ -1540,7 +1550,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>40</v>
       </c>
@@ -1548,7 +1558,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>40</v>
       </c>
@@ -1556,7 +1566,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>40</v>
       </c>
@@ -1564,7 +1574,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>40</v>
       </c>
@@ -1572,7 +1582,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>40</v>
       </c>
@@ -1580,7 +1590,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>18</v>
       </c>
@@ -1588,7 +1598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>18</v>
       </c>
@@ -1596,7 +1606,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>18</v>
       </c>
@@ -1604,7 +1614,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>18</v>
       </c>
@@ -1612,7 +1622,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>18</v>
       </c>
@@ -1620,7 +1630,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>18</v>
       </c>
@@ -1628,7 +1638,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>18</v>
       </c>
@@ -1636,7 +1646,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>18</v>
       </c>
@@ -1644,7 +1654,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>19</v>
       </c>
@@ -1652,7 +1662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>19</v>
       </c>
@@ -1660,7 +1670,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>19</v>
       </c>
@@ -1668,7 +1678,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>19</v>
       </c>
@@ -1676,7 +1686,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>19</v>
       </c>
@@ -1684,7 +1694,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>19</v>
       </c>
@@ -1692,7 +1702,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>19</v>
       </c>
@@ -1700,7 +1710,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>19</v>
       </c>
@@ -1708,7 +1718,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>20</v>
       </c>
@@ -1716,7 +1726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>20</v>
       </c>
@@ -1724,7 +1734,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>20</v>
       </c>
@@ -1732,7 +1742,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>20</v>
       </c>
@@ -1740,7 +1750,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>20</v>
       </c>
@@ -1748,7 +1758,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>20</v>
       </c>
@@ -1756,7 +1766,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>20</v>
       </c>
@@ -1764,7 +1774,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>20</v>
       </c>
@@ -1772,7 +1782,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>21</v>
       </c>
@@ -1780,7 +1790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>21</v>
       </c>
@@ -1788,7 +1798,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>21</v>
       </c>
@@ -1796,7 +1806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>21</v>
       </c>
@@ -1804,7 +1814,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>21</v>
       </c>
@@ -1812,7 +1822,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>21</v>
       </c>
@@ -1820,7 +1830,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>21</v>
       </c>
@@ -1828,7 +1838,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>21</v>
       </c>
@@ -1836,7 +1846,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>22</v>
       </c>
@@ -1844,7 +1854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>22</v>
       </c>
@@ -1852,7 +1862,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>22</v>
       </c>
@@ -1860,7 +1870,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>22</v>
       </c>
@@ -1868,7 +1878,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>22</v>
       </c>
@@ -1876,7 +1886,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>22</v>
       </c>
@@ -1884,7 +1894,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>22</v>
       </c>
@@ -1892,7 +1902,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>22</v>
       </c>
@@ -1900,7 +1910,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>41</v>
       </c>
@@ -1908,7 +1918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>41</v>
       </c>
@@ -1916,7 +1926,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>41</v>
       </c>
@@ -1924,7 +1934,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>41</v>
       </c>
@@ -1932,7 +1942,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>41</v>
       </c>
@@ -1940,7 +1950,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>41</v>
       </c>
@@ -1948,7 +1958,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>41</v>
       </c>
@@ -1956,7 +1966,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>41</v>
       </c>
@@ -1964,7 +1974,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>42</v>
       </c>
@@ -1972,7 +1982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>42</v>
       </c>
@@ -1980,7 +1990,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>42</v>
       </c>
@@ -1988,7 +1998,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>42</v>
       </c>
@@ -1996,7 +2006,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>42</v>
       </c>
@@ -2004,7 +2014,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>42</v>
       </c>
@@ -2012,7 +2022,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>42</v>
       </c>
@@ -2020,7 +2030,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>42</v>
       </c>
@@ -2028,7 +2038,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>43</v>
       </c>
@@ -2036,7 +2046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>43</v>
       </c>
@@ -2044,7 +2054,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>43</v>
       </c>
@@ -2052,7 +2062,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>43</v>
       </c>
@@ -2060,7 +2070,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>43</v>
       </c>
@@ -2068,7 +2078,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>43</v>
       </c>
@@ -2076,7 +2086,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>43</v>
       </c>
@@ -2084,7 +2094,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>43</v>
       </c>
@@ -2092,7 +2102,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>44</v>
       </c>
@@ -2100,7 +2110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>44</v>
       </c>
@@ -2108,7 +2118,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>44</v>
       </c>
@@ -2116,7 +2126,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>44</v>
       </c>
@@ -2124,7 +2134,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>44</v>
       </c>
@@ -2132,7 +2142,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>44</v>
       </c>
@@ -2140,7 +2150,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>44</v>
       </c>
@@ -2148,7 +2158,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>44</v>
       </c>
@@ -2156,7 +2166,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>45</v>
       </c>
@@ -2164,7 +2174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>45</v>
       </c>
@@ -2172,7 +2182,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>45</v>
       </c>
@@ -2180,7 +2190,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>45</v>
       </c>
@@ -2188,7 +2198,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>45</v>
       </c>
@@ -2196,7 +2206,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>45</v>
       </c>
@@ -2204,7 +2214,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>45</v>
       </c>
@@ -2212,7 +2222,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>45</v>
       </c>
@@ -2220,7 +2230,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>46</v>
       </c>
@@ -2228,7 +2238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>46</v>
       </c>
@@ -2236,7 +2246,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>46</v>
       </c>
@@ -2244,7 +2254,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>46</v>
       </c>
@@ -2252,7 +2262,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>46</v>
       </c>
@@ -2260,7 +2270,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>46</v>
       </c>
@@ -2268,7 +2278,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>46</v>
       </c>
@@ -2276,7 +2286,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>46</v>
       </c>
@@ -2284,7 +2294,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>47</v>
       </c>
@@ -2292,7 +2302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>47</v>
       </c>
@@ -2300,7 +2310,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>47</v>
       </c>
@@ -2308,7 +2318,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>47</v>
       </c>
@@ -2316,7 +2326,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>47</v>
       </c>
@@ -2324,7 +2334,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>47</v>
       </c>
@@ -2332,7 +2342,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>47</v>
       </c>
@@ -2340,7 +2350,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>47</v>
       </c>
@@ -2348,7 +2358,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>48</v>
       </c>
@@ -2356,7 +2366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>48</v>
       </c>
@@ -2364,7 +2374,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>48</v>
       </c>
@@ -2372,7 +2382,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>48</v>
       </c>
@@ -2380,7 +2390,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>48</v>
       </c>
@@ -2388,7 +2398,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>48</v>
       </c>
@@ -2396,7 +2406,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>48</v>
       </c>
@@ -2404,7 +2414,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>48</v>
       </c>
@@ -2412,7 +2422,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>49</v>
       </c>
@@ -2420,7 +2430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>49</v>
       </c>
@@ -2428,7 +2438,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>49</v>
       </c>
@@ -2436,7 +2446,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>49</v>
       </c>
@@ -2444,7 +2454,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>49</v>
       </c>
@@ -2452,7 +2462,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>49</v>
       </c>
@@ -2460,7 +2470,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>49</v>
       </c>
@@ -2468,7 +2478,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>49</v>
       </c>
@@ -2476,7 +2486,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>0</v>
       </c>
@@ -2484,7 +2494,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>0</v>
       </c>
@@ -2492,7 +2502,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>0</v>
       </c>
@@ -2500,7 +2510,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>0</v>
       </c>
@@ -2508,7 +2518,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>0</v>
       </c>
@@ -2516,7 +2526,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>0</v>
       </c>
@@ -2524,7 +2534,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>0</v>
       </c>
@@ -2532,7 +2542,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>0</v>
       </c>
@@ -2540,7 +2550,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>4</v>
       </c>
@@ -2548,7 +2558,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>4</v>
       </c>
@@ -2556,7 +2566,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>4</v>
       </c>
@@ -2564,7 +2574,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>4</v>
       </c>
@@ -2572,7 +2582,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>4</v>
       </c>
@@ -2580,7 +2590,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>4</v>
       </c>
@@ -2588,7 +2598,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>4</v>
       </c>
@@ -2596,7 +2606,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>4</v>
       </c>
@@ -2604,7 +2614,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>5</v>
       </c>
@@ -2612,7 +2622,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>5</v>
       </c>
@@ -2620,7 +2630,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>5</v>
       </c>
@@ -2628,7 +2638,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>5</v>
       </c>
@@ -2636,7 +2646,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>5</v>
       </c>
@@ -2644,7 +2654,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>5</v>
       </c>
@@ -2652,7 +2662,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>5</v>
       </c>
@@ -2660,7 +2670,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>5</v>
       </c>
@@ -2668,7 +2678,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>6</v>
       </c>
@@ -2676,7 +2686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>6</v>
       </c>
@@ -2684,7 +2694,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>6</v>
       </c>
@@ -2692,7 +2702,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>6</v>
       </c>
@@ -2700,7 +2710,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>7</v>
       </c>
@@ -2708,7 +2718,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>7</v>
       </c>
@@ -2716,7 +2726,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>7</v>
       </c>
@@ -2724,7 +2734,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>7</v>
       </c>
@@ -2732,7 +2742,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>3</v>
       </c>
@@ -2740,7 +2750,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>3</v>
       </c>
@@ -2748,7 +2758,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>3</v>
       </c>
@@ -2756,7 +2766,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>3</v>
       </c>
@@ -2764,7 +2774,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>3</v>
       </c>
@@ -2772,7 +2782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>3</v>
       </c>
@@ -2780,7 +2790,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>3</v>
       </c>
@@ -2788,7 +2798,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>3</v>
       </c>
@@ -2796,7 +2806,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>8</v>
       </c>
@@ -2804,7 +2814,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>8</v>
       </c>
@@ -2812,7 +2822,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>8</v>
       </c>
@@ -2820,7 +2830,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>8</v>
       </c>
@@ -2828,7 +2838,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>8</v>
       </c>
@@ -2836,7 +2846,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>8</v>
       </c>
@@ -2844,7 +2854,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>8</v>
       </c>
@@ -2852,7 +2862,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>8</v>
       </c>
@@ -2860,7 +2870,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
         <v>9</v>
       </c>
@@ -2868,7 +2878,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>9</v>
       </c>
@@ -2876,7 +2886,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>9</v>
       </c>
@@ -2884,7 +2894,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>9</v>
       </c>
@@ -2892,7 +2902,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>9</v>
       </c>
@@ -2900,7 +2910,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>9</v>
       </c>
@@ -2908,7 +2918,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>9</v>
       </c>
@@ -2916,7 +2926,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>9</v>
       </c>
@@ -2924,7 +2934,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
         <v>38</v>
       </c>
@@ -2932,7 +2942,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
         <v>38</v>
       </c>
@@ -2940,7 +2950,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
         <v>38</v>
       </c>
@@ -2948,7 +2958,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
         <v>38</v>
       </c>
@@ -2956,7 +2966,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
         <v>38</v>
       </c>
@@ -2964,7 +2974,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
         <v>38</v>
       </c>
@@ -2972,7 +2982,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
         <v>38</v>
       </c>
@@ -2980,7 +2990,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
         <v>38</v>
       </c>
@@ -2988,7 +2998,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
         <v>10</v>
       </c>
@@ -2996,7 +3006,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
         <v>10</v>
       </c>
@@ -3004,7 +3014,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
         <v>10</v>
       </c>
@@ -3012,7 +3022,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
         <v>10</v>
       </c>
@@ -3020,7 +3030,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
         <v>10</v>
       </c>
@@ -3028,7 +3038,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
         <v>10</v>
       </c>
@@ -3036,7 +3046,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
         <v>10</v>
       </c>
@@ -3044,7 +3054,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
         <v>10</v>
       </c>
@@ -3052,7 +3062,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
         <v>11</v>
       </c>
@@ -3060,7 +3070,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
         <v>11</v>
       </c>
@@ -3068,7 +3078,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
         <v>11</v>
       </c>
@@ -3076,7 +3086,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
         <v>11</v>
       </c>
@@ -3084,7 +3094,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
         <v>12</v>
       </c>
@@ -3092,7 +3102,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
         <v>12</v>
       </c>
@@ -3100,7 +3110,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
         <v>12</v>
       </c>
@@ -3108,7 +3118,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
         <v>12</v>
       </c>
@@ -3116,7 +3126,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
         <v>12</v>
       </c>
@@ -3124,7 +3134,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
         <v>12</v>
       </c>
@@ -3132,7 +3142,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
         <v>12</v>
       </c>
@@ -3140,7 +3150,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
         <v>12</v>
       </c>
@@ -3148,7 +3158,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
         <v>13</v>
       </c>
@@ -3156,7 +3166,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
         <v>13</v>
       </c>
@@ -3164,7 +3174,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
         <v>13</v>
       </c>
@@ -3172,7 +3182,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
         <v>13</v>
       </c>
@@ -3180,7 +3190,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
         <v>13</v>
       </c>
@@ -3188,7 +3198,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
         <v>13</v>
       </c>
@@ -3196,7 +3206,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
         <v>13</v>
       </c>
@@ -3204,7 +3214,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
         <v>13</v>
       </c>
@@ -3212,7 +3222,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
         <v>14</v>
       </c>
@@ -3220,7 +3230,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
         <v>14</v>
       </c>
@@ -3228,7 +3238,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
         <v>14</v>
       </c>
@@ -3236,7 +3246,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
         <v>14</v>
       </c>
@@ -3244,7 +3254,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
         <v>14</v>
       </c>
@@ -3252,7 +3262,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
         <v>14</v>
       </c>
@@ -3260,7 +3270,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
         <v>14</v>
       </c>
@@ -3268,7 +3278,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
         <v>14</v>
       </c>
@@ -3276,7 +3286,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
         <v>15</v>
       </c>
@@ -3284,7 +3294,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
         <v>15</v>
       </c>
@@ -3292,7 +3302,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
         <v>15</v>
       </c>
@@ -3300,7 +3310,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
         <v>15</v>
       </c>
@@ -3308,7 +3318,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
         <v>15</v>
       </c>
@@ -3316,7 +3326,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
         <v>15</v>
       </c>
@@ -3324,7 +3334,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
         <v>15</v>
       </c>
@@ -3332,7 +3342,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
         <v>15</v>
       </c>
@@ -3340,7 +3350,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
         <v>39</v>
       </c>
@@ -3348,7 +3358,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
         <v>39</v>
       </c>
@@ -3356,7 +3366,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
         <v>39</v>
       </c>
@@ -3364,7 +3374,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
         <v>39</v>
       </c>
@@ -3372,7 +3382,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
         <v>16</v>
       </c>
@@ -3380,7 +3390,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
         <v>16</v>
       </c>
@@ -3388,7 +3398,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
         <v>16</v>
       </c>
@@ -3396,7 +3406,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
         <v>16</v>
       </c>
@@ -3404,7 +3414,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
         <v>16</v>
       </c>
@@ -3412,7 +3422,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
         <v>16</v>
       </c>
@@ -3420,7 +3430,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
         <v>16</v>
       </c>
@@ -3428,7 +3438,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
         <v>16</v>
       </c>
@@ -3436,7 +3446,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
         <v>17</v>
       </c>
@@ -3444,7 +3454,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
         <v>17</v>
       </c>
@@ -3452,7 +3462,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
         <v>17</v>
       </c>
@@ -3460,7 +3470,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
         <v>17</v>
       </c>
@@ -3468,7 +3478,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
         <v>40</v>
       </c>
@@ -3476,7 +3486,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
         <v>40</v>
       </c>
@@ -3484,7 +3494,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
         <v>40</v>
       </c>
@@ -3492,7 +3502,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
         <v>40</v>
       </c>
@@ -3500,7 +3510,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
         <v>40</v>
       </c>
@@ -3508,7 +3518,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
         <v>40</v>
       </c>
@@ -3516,7 +3526,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
         <v>40</v>
       </c>
@@ -3524,7 +3534,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
         <v>40</v>
       </c>
@@ -3532,7 +3542,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
         <v>18</v>
       </c>
@@ -3540,7 +3550,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
         <v>18</v>
       </c>
@@ -3548,7 +3558,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
         <v>18</v>
       </c>
@@ -3556,7 +3566,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
         <v>18</v>
       </c>
@@ -3564,7 +3574,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
         <v>18</v>
       </c>
@@ -3572,7 +3582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
         <v>18</v>
       </c>
@@ -3580,7 +3590,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
         <v>18</v>
       </c>
@@ -3588,7 +3598,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
         <v>18</v>
       </c>
@@ -3596,7 +3606,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
         <v>19</v>
       </c>
@@ -3604,7 +3614,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
         <v>19</v>
       </c>
@@ -3612,7 +3622,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
         <v>19</v>
       </c>
@@ -3620,7 +3630,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
         <v>19</v>
       </c>
@@ -3628,7 +3638,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
         <v>19</v>
       </c>
@@ -3636,7 +3646,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
         <v>19</v>
       </c>
@@ -3644,7 +3654,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
         <v>19</v>
       </c>
@@ -3652,7 +3662,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
         <v>19</v>
       </c>
@@ -3660,7 +3670,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
         <v>20</v>
       </c>
@@ -3668,7 +3678,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
         <v>20</v>
       </c>
@@ -3676,7 +3686,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" s="2" t="s">
         <v>20</v>
       </c>
@@ -3684,7 +3694,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" s="2" t="s">
         <v>20</v>
       </c>
@@ -3692,7 +3702,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" s="2" t="s">
         <v>20</v>
       </c>
@@ -3700,7 +3710,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" s="2" t="s">
         <v>20</v>
       </c>
@@ -3708,7 +3718,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" s="2" t="s">
         <v>20</v>
       </c>
@@ -3716,7 +3726,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" s="2" t="s">
         <v>20</v>
       </c>
@@ -3724,7 +3734,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" s="2" t="s">
         <v>21</v>
       </c>
@@ -3732,7 +3742,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" s="2" t="s">
         <v>21</v>
       </c>
@@ -3740,7 +3750,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" s="2" t="s">
         <v>21</v>
       </c>
@@ -3748,7 +3758,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
         <v>21</v>
       </c>
@@ -3756,7 +3766,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" s="2" t="s">
         <v>21</v>
       </c>
@@ -3764,7 +3774,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" s="2" t="s">
         <v>21</v>
       </c>
@@ -3772,7 +3782,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" s="2" t="s">
         <v>21</v>
       </c>
@@ -3780,7 +3790,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" s="2" t="s">
         <v>21</v>
       </c>
@@ -3788,7 +3798,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" s="2" t="s">
         <v>22</v>
       </c>
@@ -3796,7 +3806,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" s="2" t="s">
         <v>22</v>
       </c>
@@ -3804,7 +3814,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" s="2" t="s">
         <v>22</v>
       </c>
@@ -3812,7 +3822,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" s="2" t="s">
         <v>22</v>
       </c>
@@ -3820,7 +3830,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" s="2" t="s">
         <v>22</v>
       </c>
@@ -3828,7 +3838,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" s="2" t="s">
         <v>22</v>
       </c>
@@ -3836,7 +3846,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" s="2" t="s">
         <v>22</v>
       </c>
@@ -3844,7 +3854,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" s="2" t="s">
         <v>22</v>
       </c>
@@ -3852,7 +3862,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" s="2" t="s">
         <v>41</v>
       </c>
@@ -3860,7 +3870,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" s="2" t="s">
         <v>41</v>
       </c>
@@ -3868,7 +3878,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" s="2" t="s">
         <v>41</v>
       </c>
@@ -3876,7 +3886,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" s="2" t="s">
         <v>41</v>
       </c>
@@ -3884,7 +3894,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" s="2" t="s">
         <v>41</v>
       </c>
@@ -3892,7 +3902,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" s="2" t="s">
         <v>41</v>
       </c>
@@ -3900,7 +3910,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" s="2" t="s">
         <v>41</v>
       </c>
@@ -3908,7 +3918,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" s="2" t="s">
         <v>41</v>
       </c>
@@ -3916,7 +3926,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" s="2" t="s">
         <v>42</v>
       </c>
@@ -3924,7 +3934,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" s="2" t="s">
         <v>42</v>
       </c>
@@ -3932,7 +3942,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" s="2" t="s">
         <v>42</v>
       </c>
@@ -3940,7 +3950,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" s="2" t="s">
         <v>42</v>
       </c>
@@ -3948,7 +3958,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" s="2" t="s">
         <v>42</v>
       </c>
@@ -3956,7 +3966,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" s="2" t="s">
         <v>42</v>
       </c>
@@ -3964,7 +3974,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" s="2" t="s">
         <v>42</v>
       </c>
@@ -3972,7 +3982,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" s="2" t="s">
         <v>42</v>
       </c>
@@ -3980,7 +3990,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" s="2" t="s">
         <v>43</v>
       </c>
@@ -3988,7 +3998,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" s="2" t="s">
         <v>43</v>
       </c>
@@ -3996,7 +4006,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" s="2" t="s">
         <v>43</v>
       </c>
@@ -4004,7 +4014,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" s="2" t="s">
         <v>43</v>
       </c>
@@ -4012,7 +4022,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" s="2" t="s">
         <v>43</v>
       </c>
@@ -4020,7 +4030,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" s="2" t="s">
         <v>43</v>
       </c>
@@ -4028,7 +4038,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" s="2" t="s">
         <v>43</v>
       </c>
@@ -4036,7 +4046,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" s="2" t="s">
         <v>43</v>
       </c>
@@ -4044,7 +4054,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" s="2" t="s">
         <v>44</v>
       </c>
@@ -4052,7 +4062,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" s="2" t="s">
         <v>44</v>
       </c>
@@ -4060,7 +4070,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" s="2" t="s">
         <v>44</v>
       </c>
@@ -4068,7 +4078,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" s="2" t="s">
         <v>44</v>
       </c>
@@ -4076,7 +4086,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" s="2" t="s">
         <v>44</v>
       </c>
@@ -4084,7 +4094,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" s="2" t="s">
         <v>44</v>
       </c>
@@ -4092,7 +4102,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" s="2" t="s">
         <v>44</v>
       </c>
@@ -4100,7 +4110,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" s="2" t="s">
         <v>44</v>
       </c>
@@ -4108,7 +4118,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" s="2" t="s">
         <v>45</v>
       </c>
@@ -4116,7 +4126,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" s="2" t="s">
         <v>45</v>
       </c>
@@ -4124,7 +4134,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" s="2" t="s">
         <v>45</v>
       </c>
@@ -4132,7 +4142,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" s="2" t="s">
         <v>45</v>
       </c>
@@ -4140,7 +4150,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" s="2" t="s">
         <v>45</v>
       </c>
@@ -4148,7 +4158,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" s="2" t="s">
         <v>45</v>
       </c>
@@ -4156,7 +4166,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" s="2" t="s">
         <v>45</v>
       </c>
@@ -4164,7 +4174,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" s="2" t="s">
         <v>45</v>
       </c>
@@ -4172,7 +4182,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" s="2" t="s">
         <v>46</v>
       </c>
@@ -4180,7 +4190,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" s="2" t="s">
         <v>46</v>
       </c>
@@ -4188,7 +4198,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" s="2" t="s">
         <v>46</v>
       </c>
@@ -4196,7 +4206,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" s="2" t="s">
         <v>46</v>
       </c>
@@ -4204,7 +4214,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" s="2" t="s">
         <v>46</v>
       </c>
@@ -4212,7 +4222,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" s="2" t="s">
         <v>46</v>
       </c>
@@ -4220,7 +4230,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" s="2" t="s">
         <v>46</v>
       </c>
@@ -4228,7 +4238,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" s="2" t="s">
         <v>46</v>
       </c>
@@ -4236,7 +4246,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" s="2" t="s">
         <v>47</v>
       </c>
@@ -4244,7 +4254,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" s="2" t="s">
         <v>47</v>
       </c>
@@ -4252,7 +4262,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" s="2" t="s">
         <v>47</v>
       </c>
@@ -4260,7 +4270,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" s="2" t="s">
         <v>47</v>
       </c>
@@ -4268,7 +4278,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" s="2" t="s">
         <v>47</v>
       </c>
@@ -4276,7 +4286,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" s="2" t="s">
         <v>47</v>
       </c>
@@ -4284,7 +4294,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" s="2" t="s">
         <v>47</v>
       </c>
@@ -4292,7 +4302,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" s="2" t="s">
         <v>47</v>
       </c>
@@ -4300,7 +4310,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" s="2" t="s">
         <v>48</v>
       </c>
@@ -4308,7 +4318,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" s="2" t="s">
         <v>48</v>
       </c>
@@ -4316,7 +4326,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" s="2" t="s">
         <v>48</v>
       </c>
@@ -4324,7 +4334,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" s="2" t="s">
         <v>48</v>
       </c>
@@ -4332,7 +4342,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" s="2" t="s">
         <v>48</v>
       </c>
@@ -4340,7 +4350,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" s="2" t="s">
         <v>48</v>
       </c>
@@ -4348,7 +4358,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" s="2" t="s">
         <v>48</v>
       </c>
@@ -4356,7 +4366,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" s="2" t="s">
         <v>48</v>
       </c>
@@ -4364,7 +4374,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" s="2" t="s">
         <v>49</v>
       </c>
@@ -4372,7 +4382,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" s="2" t="s">
         <v>49</v>
       </c>
@@ -4380,7 +4390,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" s="2" t="s">
         <v>49</v>
       </c>
@@ -4388,7 +4398,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" s="2" t="s">
         <v>49</v>
       </c>
@@ -4396,7 +4406,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" s="2" t="s">
         <v>49</v>
       </c>
@@ -4404,7 +4414,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" s="2" t="s">
         <v>49</v>
       </c>
@@ -4412,7 +4422,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" s="2" t="s">
         <v>49</v>
       </c>
@@ -4420,7 +4430,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" s="2" t="s">
         <v>49</v>
       </c>
@@ -4430,6 +4440,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>